--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>456.3116947618312</v>
+        <v>456.3634977309002</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.26000294678256</v>
+        <v>10.2600020604768</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>538.4221890824703</v>
+        <v>538.4214621609594</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>959.7039132528936</v>
+        <v>959.7024858072822</v>
       </c>
       <c r="E5" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.3875678169823</v>
+        <v>464.3903892161017</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>875.0381614238644</v>
+        <v>875.0407878578355</v>
       </c>
       <c r="E6" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.5173236072396</v>
+        <v>294.5273158912748</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.2573457553491</v>
+        <v>686.2676937294023</v>
       </c>
       <c r="E7" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.0948452499158</v>
+        <v>228.1106143072968</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4235599438206</v>
+        <v>614.4399700025463</v>
       </c>
       <c r="E8" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.1731272836379</v>
+        <v>227.1888816016189</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4338157306689</v>
+        <v>613.4502069877846</v>
       </c>
       <c r="E9" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.0213415666059</v>
+        <v>168.0284191931513</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.2807171991228</v>
+        <v>550.2877198657113</v>
       </c>
       <c r="E10" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.6864110382265</v>
+        <v>102.6939096519824</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.2485265406658</v>
+        <v>481.2559110959024</v>
       </c>
       <c r="E11" t="n">
-        <v>466.5716977086138</v>
+        <v>466.623499791377</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787247838031566</v>
+        <v>0.7787249587184665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211399054730999</v>
+        <v>0.121140189751365</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03146045438210113</v>
+        <v>0.03146030331439352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212662981816324</v>
+        <v>0.06212632704747019</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548226523479152</v>
+        <v>0.006548221168304848</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.725549576593917</v>
+        <v>9.725548736456668</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5344533701886541</v>
+        <v>0.5344533240201389</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572028710834732</v>
+        <v>3.572037570827192</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944189</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489637</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6429485957895786</v>
+        <v>0.6430220743000709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6763911612631349</v>
+        <v>0.6764443136081983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9505573588349329</v>
+        <v>0.9505912923861374</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.20380346758099</v>
+        <v>52.21188460718351</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67358071838577</v>
+        <v>33.67765336173908</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492954536198832</v>
+        <v>0.849295252268303</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.56715771435768</v>
+        <v>12.56849099397355</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8167183195650575</v>
+        <v>0.8167135257757566</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.797818805829134</v>
+        <v>4.799086539844844</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.810464339291862</v>
+        <v>0.8104560421316921</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.165246229008403</v>
+        <v>1.16665371162604</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3441781416381932</v>
+        <v>0.3443739727300819</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1126813689202525</v>
+        <v>0.1127346108691127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1257348553969449</v>
+        <v>0.1257938276990196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8961824353678017</v>
+        <v>0.8961855516380894</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41402.77029367104</v>
+        <v>41401.85783690561</v>
       </c>
       <c r="C2" t="n">
-        <v>41820.98009461721</v>
+        <v>41820.05842111678</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90783.54703427048</v>
+        <v>90780.97163581989</v>
       </c>
       <c r="C3" t="n">
-        <v>91700.55255986917</v>
+        <v>91697.95114729283</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39159.30324605626</v>
+        <v>39160.11593256221</v>
       </c>
       <c r="C4" t="n">
-        <v>39554.85176369319</v>
+        <v>39555.67265915375</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.1641596861135</v>
+        <v>513.1666006225665</v>
       </c>
       <c r="C5" t="n">
-        <v>518.3476360465793</v>
+        <v>518.3501016389561</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32903.24813569719</v>
+        <v>32905.16636562947</v>
       </c>
       <c r="C6" t="n">
-        <v>33235.60417747191</v>
+        <v>33237.54178346411</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37330.16410822891</v>
+        <v>37327.54146218584</v>
       </c>
       <c r="C7" t="n">
-        <v>37707.23647295849</v>
+        <v>37704.58733554126</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.07883287703235</v>
+        <v>46.08202246411778</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.66328185035852</v>
+        <v>89.66007944230059</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.925620160660713</v>
+        <v>7.925632981633187</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.9288135919669</v>
+        <v>512.9272811941796</v>
       </c>
       <c r="C3" t="n">
-        <v>6.716687519824171</v>
+        <v>6.717680610887203</v>
       </c>
       <c r="D3" t="n">
-        <v>3445.841836799585</v>
+        <v>3445.826967057529</v>
       </c>
       <c r="E3" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5853704652915</v>
+        <v>286.5948819866711</v>
       </c>
       <c r="C4" t="n">
-        <v>7.078598599197695</v>
+        <v>7.079591022822543</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.602067665186</v>
+        <v>2771.589015870915</v>
       </c>
       <c r="E4" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9617534576442</v>
+        <v>285.9527661608513</v>
       </c>
       <c r="C5" t="n">
-        <v>7.078598599197695</v>
+        <v>7.079591022822543</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.320377679752</v>
+        <v>1268.27109720729</v>
       </c>
       <c r="E5" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.9355429176297</v>
+        <v>163.9315203429961</v>
       </c>
       <c r="C6" t="n">
-        <v>7.078598599197695</v>
+        <v>7.079591022822543</v>
       </c>
       <c r="D6" t="n">
-        <v>696.2672174925204</v>
+        <v>696.2503972453474</v>
       </c>
       <c r="E6" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.4251965766407</v>
+        <v>157.4300167448406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5787906801692416</v>
+        <v>0.578862597041788</v>
       </c>
       <c r="D7" t="n">
-        <v>664.2975410479826</v>
+        <v>664.318443843184</v>
       </c>
       <c r="E7" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.2346689311885</v>
+        <v>170.2377055920628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5724443322505652</v>
+        <v>0.572551964733805</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.541598398228</v>
+        <v>2785.543565817987</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76212045999569</v>
+        <v>14.76624469377397</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.4251964553267</v>
+        <v>157.4300166235173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5787906801692416</v>
+        <v>0.578862597041788</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.573527035444</v>
+        <v>2754.578960158032</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76212045999569</v>
+        <v>14.76624469377397</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.4251965766407</v>
+        <v>157.4300167448406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5787906801692416</v>
+        <v>0.578862597041788</v>
       </c>
       <c r="D10" t="n">
-        <v>687.4459733037079</v>
+        <v>687.4183317314358</v>
       </c>
       <c r="E10" t="n">
-        <v>72.76397745562713</v>
+        <v>72.77492338858367</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.4251965766407</v>
+        <v>157.4300167448406</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5787906801692416</v>
+        <v>0.578862597041788</v>
       </c>
       <c r="D11" t="n">
-        <v>687.4459733037079</v>
+        <v>687.4183317314358</v>
       </c>
       <c r="E11" t="n">
-        <v>73.16808150929053</v>
+        <v>73.18045259364861</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5787906801692416</v>
+        <v>0.578862597041788</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6496414317017</v>
+        <v>251.6497018198185</v>
       </c>
       <c r="E12" t="n">
-        <v>73.16563085661305</v>
+        <v>73.18047517184375</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.40061121758743</v>
+        <v>59.39532772177898</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.240851076044</v>
+        <v>249.2187482499852</v>
       </c>
       <c r="E13" t="n">
-        <v>72.76067664267373</v>
+        <v>72.77375648992947</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.90606457812925</v>
+        <v>58.90012555471026</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>247.17203063694</v>
+        <v>247.1471867526699</v>
       </c>
       <c r="E14" t="n">
-        <v>63.79910473347061</v>
+        <v>63.81195293724959</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.38406660435049</v>
+        <v>95.38179807715613</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08581158439389948</v>
+        <v>0.08580443656409069</v>
       </c>
       <c r="D15" t="n">
-        <v>399.7069579786688</v>
+        <v>399.6974006544584</v>
       </c>
       <c r="E15" t="n">
-        <v>59.36652663736277</v>
+        <v>59.3666808705654</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.66522165842343</v>
+        <v>61.66515172748456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08581096471538596</v>
+        <v>0.08580448999535727</v>
       </c>
       <c r="D16" t="n">
-        <v>258.20521384218</v>
+        <v>258.2049157162271</v>
       </c>
       <c r="E16" t="n">
-        <v>59.36431263182813</v>
+        <v>59.36586047771819</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>622.4825373328355</v>
+        <v>622.4795528524821</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.41469398504542</v>
+        <v>78.41431802732841</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.22908347801938</v>
+        <v>78.22836897425998</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>327.5451725224672</v>
+        <v>327.5421808952266</v>
       </c>
       <c r="E19" t="n">
-        <v>78.41469398504542</v>
+        <v>78.41431802732841</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.4865982905505</v>
+        <v>111.4889159149184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1506926889528934</v>
+        <v>0.1506953771011808</v>
       </c>
       <c r="D20" t="n">
-        <v>2680.647556384106</v>
+        <v>2680.630627357275</v>
       </c>
       <c r="E20" t="n">
-        <v>16.30205851667982</v>
+        <v>16.30461304227376</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.9541560498831</v>
+        <v>109.9546869422155</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1431580545052487</v>
+        <v>0.1431606082461217</v>
       </c>
       <c r="D21" t="n">
-        <v>461.2211871294973</v>
+        <v>461.2234337417552</v>
       </c>
       <c r="E21" t="n">
-        <v>16.30205851667982</v>
+        <v>16.30461304227376</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.63844466421108</v>
+        <v>92.63634396580652</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>387.8771678090518</v>
+        <v>387.8683721848319</v>
       </c>
       <c r="E22" t="n">
-        <v>622.4825373328355</v>
+        <v>622.4795528524821</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>622.4825373328355</v>
+        <v>622.4795528524821</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.09072778870352</v>
+        <v>56.09063778201212</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>622.4825373328355</v>
+        <v>622.4795528524821</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.7870479580402</v>
+        <v>96.78475959209908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09032798357252578</v>
+        <v>0.0903204595411481</v>
       </c>
       <c r="D25" t="n">
-        <v>2610.702297717793</v>
+        <v>2610.664260704949</v>
       </c>
       <c r="E25" t="n">
-        <v>43.06428141913355</v>
+        <v>43.06208234821182</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510.1289307710653</v>
+        <v>510.1270916756916</v>
       </c>
       <c r="C26" t="n">
-        <v>6.118342761804687</v>
+        <v>6.11928105710733</v>
       </c>
       <c r="D26" t="n">
-        <v>3445.841836799585</v>
+        <v>3445.826967057529</v>
       </c>
       <c r="E26" t="n">
-        <v>49.03878763190856</v>
+        <v>49.04655869761071</v>
       </c>
       <c r="F26" t="n">
-        <v>6.903229622153082</v>
+        <v>6.903143087374888</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>198.3302817183006</v>
+        <v>198.3291809893727</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4228678434697649</v>
+        <v>0.4229403536252015</v>
       </c>
       <c r="D27" t="n">
-        <v>2856.254020506859</v>
+        <v>2856.247976680004</v>
       </c>
       <c r="E27" t="n">
-        <v>49.03878763190856</v>
+        <v>49.04655869761071</v>
       </c>
       <c r="F27" t="n">
-        <v>7.137312845721792</v>
+        <v>7.137222703095198</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.4569258462101</v>
+        <v>167.4612390437833</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4848856589119447</v>
+        <v>0.4849928269201302</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.541598398228</v>
+        <v>2785.543565817987</v>
       </c>
       <c r="E28" t="n">
-        <v>14.76212045999569</v>
+        <v>14.76624469377397</v>
       </c>
       <c r="F28" t="n">
-        <v>6.920779178235223</v>
+        <v>6.920685317155668</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.6038930942859</v>
+        <v>190.6030873128296</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4228678434697649</v>
+        <v>0.4229403536252015</v>
       </c>
       <c r="D29" t="n">
-        <v>2839.892728412364</v>
+        <v>2839.887018122608</v>
       </c>
       <c r="E29" t="n">
-        <v>63.80090809190425</v>
+        <v>63.81280339138468</v>
       </c>
       <c r="F29" t="n">
-        <v>7.102323044956252</v>
+        <v>7.102233544277285</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.4859117505131</v>
+        <v>111.4886370997665</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1506837203443747</v>
+        <v>0.1506973941893003</v>
       </c>
       <c r="D30" t="n">
-        <v>2680.644774066456</v>
+        <v>2680.629497512328</v>
       </c>
       <c r="E30" t="n">
-        <v>63.80090809190425</v>
+        <v>63.81280339138468</v>
       </c>
       <c r="F30" t="n">
-        <v>7.188526894478558</v>
+        <v>7.188446375368067</v>
       </c>
       <c r="G30" t="n">
-        <v>99.43085593544136</v>
+        <v>99.42998276199482</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.78757506676919</v>
+        <v>96.78474431699954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09032971675304506</v>
+        <v>0.09032040931912726</v>
       </c>
       <c r="D31" t="n">
-        <v>2610.705280415339</v>
+        <v>2610.664358362301</v>
       </c>
       <c r="E31" t="n">
-        <v>47.49866287367503</v>
+        <v>47.50820486903109</v>
       </c>
       <c r="F31" t="n">
-        <v>7.231478511568957</v>
+        <v>7.231413529597726</v>
       </c>
       <c r="G31" t="n">
-        <v>97.36106203087031</v>
+        <v>97.35946320569452</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.58867106761471</v>
+        <v>59.56960541963758</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008578848930523898</v>
+        <v>0.008598710068492504</v>
       </c>
       <c r="D32" t="n">
-        <v>2610.705280415339</v>
+        <v>2610.664358362301</v>
       </c>
       <c r="E32" t="n">
-        <v>4.434792101642479</v>
+        <v>4.446092459531407</v>
       </c>
       <c r="F32" t="n">
-        <v>8.301775153323506</v>
+        <v>8.300587357907537</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.89374199517107</v>
+        <v>55.82189463529693</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002573058218650664</v>
+        <v>0.002573771640589985</v>
       </c>
       <c r="D33" t="n">
-        <v>2605.09891769279</v>
+        <v>2604.963391717021</v>
       </c>
       <c r="E33" t="n">
-        <v>4.434792101642479</v>
+        <v>4.446092459531407</v>
       </c>
       <c r="F33" t="n">
-        <v>8.839838335654136</v>
+        <v>8.839298559155983</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.54658736190214</v>
+        <v>21.55111644731653</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002573058218650664</v>
+        <v>0.002573771640589985</v>
       </c>
       <c r="D34" t="n">
-        <v>90.38504267924375</v>
+        <v>90.40399009189213</v>
       </c>
       <c r="E34" t="n">
-        <v>4.434792101642479</v>
+        <v>4.446092459531407</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.56702833671915</v>
+        <v>23.57156095968884</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.48137860445311</v>
+        <v>99.50032586841635</v>
       </c>
       <c r="E35" t="n">
-        <v>4.434792101642479</v>
+        <v>4.446092459531407</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.9258395274237</v>
+        <v>497.9284398057902</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3463.665788753435</v>
+        <v>3463.671523841687</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623143856876722</v>
+        <v>7.623162765178574</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>8.961571909203126</v>
+        <v>8.961803552679875</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.9258395274237</v>
+        <v>512.9284398057902</v>
       </c>
       <c r="C42" t="n">
-        <v>6.717166539915016</v>
+        <v>6.717996173541046</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.82781653016</v>
+        <v>3445.825165283625</v>
       </c>
       <c r="E42" t="n">
-        <v>8.961571909203126</v>
+        <v>8.961803552679875</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980454317716495</v>
+        <v>8.980476592665543</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572028710834732</v>
+        <v>3.572037570827192</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944189</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489637</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.854300601332692</v>
+        <v>1.852330425003729</v>
       </c>
       <c r="C2" t="n">
-        <v>2.070348901169454</v>
+        <v>2.068015934813928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8956464295874359</v>
+        <v>0.8957041354569611</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2230549208879685</v>
+        <v>0.2233511377948924</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>132.6906533752153</v>
+        <v>132.715888357022</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.91886781035496</v>
+        <v>31.92110362104518</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.23142733540862</v>
+        <v>6.231480878476559</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.41973129619756</v>
+        <v>42.42875459897591</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.91267171353969</v>
+        <v>28.91682055842934</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493484851533271</v>
+        <v>0.8493485861334267</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.16016409904704</v>
+        <v>10.16266885130323</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8276703436139172</v>
+        <v>0.8276630406894291</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.322032430489926</v>
+        <v>3.323918164429727</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148710389329209</v>
+        <v>0.8148729390465179</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02486305312090298</v>
+        <v>0.02534702481361949</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03343573731030999</v>
+        <v>0.03394468510647957</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0403403587150052</v>
+        <v>0.04044314990537014</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04520160413049584</v>
+        <v>0.04531654919472806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924541394270797</v>
+        <v>0.8924587291848587</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39107.61713295987</v>
+        <v>39110.08641749672</v>
       </c>
       <c r="C2" t="n">
-        <v>39502.64356864633</v>
+        <v>39505.13779545124</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87198.98780466329</v>
+        <v>87205.10223017001</v>
       </c>
       <c r="C3" t="n">
-        <v>88079.78566127605</v>
+        <v>88085.96184865657</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33180.45528493258</v>
+        <v>33181.33878919893</v>
       </c>
       <c r="C4" t="n">
-        <v>33515.61139892179</v>
+        <v>33516.50382747367</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.1687714491683</v>
+        <v>457.22821509305</v>
       </c>
       <c r="C5" t="n">
-        <v>461.7866378274427</v>
+        <v>461.8466819121718</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29170.7939134486</v>
+        <v>29178.36978846529</v>
       </c>
       <c r="C6" t="n">
-        <v>29465.44839742283</v>
+        <v>29473.10079642959</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31886.38172814039</v>
+        <v>31889.74556304632</v>
       </c>
       <c r="C7" t="n">
-        <v>32208.466392061</v>
+        <v>32211.86420509729</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.81940635960036</v>
+        <v>35.82470972038843</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.25557114248271</v>
+        <v>95.24987393168786</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.316103545084294</v>
+        <v>8.31582908727859</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25909.33528036237</v>
+        <v>25909.44326489882</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2605.119782706967</v>
+        <v>2605.725095019236</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17032.91898791236</v>
+        <v>17032.91751653127</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.821097478027</v>
+        <v>5906.835748645365</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.410893798723</v>
+        <v>4267.421478603997</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.78256190186</v>
+        <v>15840.82185307934</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28620.13433588557</v>
+        <v>28620.80417534794</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8009818506290914</v>
+        <v>0.8011341805929133</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.8766202635111</v>
+        <v>461.8781752089178</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.0434892985385</v>
+        <v>867.0452482444499</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2691567062021</v>
+        <v>304.2753251681768</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.039746730806</v>
+        <v>692.0464702807914</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.4782780618954</v>
+        <v>234.4830814567937</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.5522289119923</v>
+        <v>616.557385843524</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.5567799951598</v>
+        <v>233.5615799083427</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.5630006715184</v>
+        <v>615.5681528976488</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.1253803059312</v>
+        <v>174.126750560203</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1353008901023</v>
+        <v>552.1367553380755</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.9658152279691</v>
+        <v>105.9720113218006</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.1738206106245</v>
+        <v>480.1803307420113</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.3448647619524</v>
+        <v>504.3453548346104</v>
       </c>
       <c r="C3" t="n">
-        <v>7.7550597638945</v>
+        <v>7.755850428214822</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.117544387818</v>
+        <v>3413.109228653452</v>
       </c>
       <c r="E3" t="n">
-        <v>63.09162700877202</v>
+        <v>63.09258398604463</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.0579657108249</v>
+        <v>296.0644109904088</v>
       </c>
       <c r="C4" t="n">
-        <v>8.121032602471853</v>
+        <v>8.121779683625027</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.870917169257</v>
+        <v>2756.859649950336</v>
       </c>
       <c r="E4" t="n">
-        <v>63.09162700877202</v>
+        <v>63.09258398604463</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1461052442174</v>
+        <v>295.1515190070995</v>
       </c>
       <c r="C5" t="n">
-        <v>8.121032602471853</v>
+        <v>8.121779683625027</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.963330730724</v>
+        <v>1317.992950342019</v>
       </c>
       <c r="E5" t="n">
-        <v>63.09162700877202</v>
+        <v>63.09258398604463</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.0374244456237</v>
+        <v>164.038304496314</v>
       </c>
       <c r="C6" t="n">
-        <v>8.121032602471853</v>
+        <v>8.121779683625027</v>
       </c>
       <c r="D6" t="n">
-        <v>697.3121230072209</v>
+        <v>697.3163594507148</v>
       </c>
       <c r="E6" t="n">
-        <v>63.09162700877202</v>
+        <v>63.09258398604463</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.6784288801089</v>
+        <v>162.679170048044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6615082116998178</v>
+        <v>0.6615205107575189</v>
       </c>
       <c r="D7" t="n">
-        <v>687.1214110812123</v>
+        <v>687.1246374815797</v>
       </c>
       <c r="E7" t="n">
-        <v>63.09162700877202</v>
+        <v>63.09258398604463</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3609517719483</v>
+        <v>175.3637176734109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6545208425257369</v>
+        <v>0.6545424379888355</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.609874976219</v>
+        <v>2791.615518682188</v>
       </c>
       <c r="E8" t="n">
-        <v>16.41250520812031</v>
+        <v>16.41219268077954</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.6784287481299</v>
+        <v>162.6791699160635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6615082116998178</v>
+        <v>0.6615205107575189</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.350327065875</v>
+        <v>2760.351121393604</v>
       </c>
       <c r="E9" t="n">
-        <v>16.41250520812031</v>
+        <v>16.41219268077954</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.6784288801089</v>
+        <v>162.679170048044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6615082116998178</v>
+        <v>0.6615205107575189</v>
       </c>
       <c r="D10" t="n">
-        <v>701.2763526347902</v>
+        <v>701.2432411122761</v>
       </c>
       <c r="E10" t="n">
-        <v>79.50413221689233</v>
+        <v>79.50477666682417</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.6784288801089</v>
+        <v>162.679170048044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6615082116998178</v>
+        <v>0.6615205107575189</v>
       </c>
       <c r="D11" t="n">
-        <v>701.2763526347902</v>
+        <v>701.2432411122761</v>
       </c>
       <c r="E11" t="n">
-        <v>83.03760616137806</v>
+        <v>83.03790297726536</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6615082116998178</v>
+        <v>0.6615205107575189</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7190980837927</v>
+        <v>251.7191084110199</v>
       </c>
       <c r="E12" t="n">
-        <v>83.03765168342581</v>
+        <v>83.04073931926857</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.21564301134578</v>
+        <v>55.21418105128959</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>231.7371694453835</v>
+        <v>231.731055974764</v>
       </c>
       <c r="E13" t="n">
-        <v>74.41332156966153</v>
+        <v>74.42217638974816</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.21564301134578</v>
+        <v>55.21418105128959</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>231.7371694453835</v>
+        <v>231.731055974764</v>
       </c>
       <c r="E14" t="n">
-        <v>74.41332156966153</v>
+        <v>74.42217638974816</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.8361026377371</v>
+        <v>91.83482214690872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07522029567757367</v>
+        <v>0.07521667964737221</v>
       </c>
       <c r="D15" t="n">
-        <v>384.7661901291671</v>
+        <v>384.760800286634</v>
       </c>
       <c r="E15" t="n">
-        <v>62.02652785524926</v>
+        <v>62.02676245086348</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.06773294268385</v>
+        <v>61.06800579422338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07522033959344482</v>
+        <v>0.07521705416830728</v>
       </c>
       <c r="D16" t="n">
-        <v>255.6954972107325</v>
+        <v>255.6966364756898</v>
       </c>
       <c r="E16" t="n">
-        <v>62.02548920234803</v>
+        <v>62.02849045556352</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.32116984792394</v>
+        <v>76.32120773545424</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>319.5567381532576</v>
+        <v>319.5568967883469</v>
       </c>
       <c r="E19" t="n">
         <v>80.82053300784078</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.5073353916576</v>
+        <v>112.508277854822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1558772778166967</v>
+        <v>0.1558789291441388</v>
       </c>
       <c r="D20" t="n">
-        <v>2654.648616990728</v>
+        <v>2654.637978127345</v>
       </c>
       <c r="E20" t="n">
-        <v>21.26131070084379</v>
+        <v>21.26289878877304</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.9639092068807</v>
+        <v>110.9642263914133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1480834139258619</v>
+        <v>0.1480849826869319</v>
       </c>
       <c r="D21" t="n">
-        <v>465.4949806855664</v>
+        <v>465.4963234118443</v>
       </c>
       <c r="E21" t="n">
-        <v>21.26131070084379</v>
+        <v>21.26289878877304</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.22838068954698</v>
+        <v>89.22719333594945</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>373.5992299471332</v>
+        <v>373.5942584976204</v>
       </c>
       <c r="E22" t="n">
         <v>641.5809065697239</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.85038616547524</v>
+        <v>55.85039093820206</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.20824469154229</v>
+        <v>93.20695313874194</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07917925860797229</v>
+        <v>0.0791754522603918</v>
       </c>
       <c r="D25" t="n">
-        <v>2564.382026502611</v>
+        <v>2564.362112269697</v>
       </c>
       <c r="E25" t="n">
-        <v>40.76524541198412</v>
+        <v>40.76391015352819</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.4646478229239</v>
+        <v>501.4651871586309</v>
       </c>
       <c r="C26" t="n">
-        <v>7.155575017227835</v>
+        <v>7.156393177787421</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.117544387818</v>
+        <v>3413.109228653452</v>
       </c>
       <c r="E26" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F26" t="n">
-        <v>6.792599117180151</v>
+        <v>6.792538576506256</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.7417862422318</v>
+        <v>188.7380698235153</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4824463358598295</v>
+        <v>0.4824850639652598</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.557154383029</v>
+        <v>2832.546903851657</v>
       </c>
       <c r="E27" t="n">
-        <v>58.00185699563144</v>
+        <v>58.0086786948097</v>
       </c>
       <c r="F27" t="n">
-        <v>7.02725737373073</v>
+        <v>7.027199198799903</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.4626582829167</v>
+        <v>172.4662275156441</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5591063205783233</v>
+        <v>0.5591421291888006</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.609874976219</v>
+        <v>2791.615518682188</v>
       </c>
       <c r="E28" t="n">
-        <v>16.41250520812031</v>
+        <v>16.41219268077954</v>
       </c>
       <c r="F28" t="n">
-        <v>6.871227394886051</v>
+        <v>6.871211676977951</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.5780395424493</v>
+        <v>184.5764417375794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4824463358598295</v>
+        <v>0.4824850639652598</v>
       </c>
       <c r="D29" t="n">
-        <v>2823.526002107847</v>
+        <v>2823.520218626457</v>
       </c>
       <c r="E29" t="n">
-        <v>74.41436220375175</v>
+        <v>74.42087137558924</v>
       </c>
       <c r="F29" t="n">
-        <v>7.007616096707014</v>
+        <v>7.00756752363847</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.5063865818919</v>
+        <v>112.5078031219924</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1558755000078933</v>
+        <v>0.1558828075487304</v>
       </c>
       <c r="D30" t="n">
-        <v>2654.645192783057</v>
+        <v>2654.636264949772</v>
       </c>
       <c r="E30" t="n">
-        <v>74.41436220375175</v>
+        <v>74.42087137558924</v>
       </c>
       <c r="F30" t="n">
-        <v>7.105887359002797</v>
+        <v>7.105843401853204</v>
       </c>
       <c r="G30" t="n">
-        <v>98.19131775754167</v>
+        <v>98.19081717059083</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.20788373000727</v>
+        <v>93.20566547833801</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07917819479946001</v>
+        <v>0.0791716575356613</v>
       </c>
       <c r="D31" t="n">
-        <v>2564.381019428501</v>
+        <v>2564.356630323431</v>
       </c>
       <c r="E31" t="n">
-        <v>53.15307976048661</v>
+        <v>53.15801907825395</v>
       </c>
       <c r="F31" t="n">
-        <v>7.163506514750351</v>
+        <v>7.163475888887222</v>
       </c>
       <c r="G31" t="n">
-        <v>95.58745951287645</v>
+        <v>95.58655562784205</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.01479661657652</v>
+        <v>63.02519105255578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02290016142149555</v>
+        <v>0.02291095487444339</v>
       </c>
       <c r="D32" t="n">
-        <v>2564.381019428501</v>
+        <v>2564.356630323431</v>
       </c>
       <c r="E32" t="n">
-        <v>12.3878323673135</v>
+        <v>12.39368593418464</v>
       </c>
       <c r="F32" t="n">
-        <v>7.712604314224139</v>
+        <v>7.71232013253243</v>
       </c>
       <c r="G32" t="n">
-        <v>97.88576025816963</v>
+        <v>97.8839333605187</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.48664647729561</v>
+        <v>24.48866535296202</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003074204183267394</v>
+        <v>0.00307457564670357</v>
       </c>
       <c r="D33" t="n">
-        <v>2470.317248265192</v>
+        <v>2470.223721209756</v>
       </c>
       <c r="E33" t="n">
-        <v>12.3878323673135</v>
+        <v>12.39368593418464</v>
       </c>
       <c r="F33" t="n">
-        <v>8.314801311752751</v>
+        <v>8.31443312331098</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91930285169495</v>
+        <v>96.91531852647056</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.48664647729561</v>
+        <v>24.48866535296202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003074204183267394</v>
+        <v>0.00307457564670357</v>
       </c>
       <c r="D34" t="n">
-        <v>102.6824388329023</v>
+        <v>102.6908817501102</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3878323673135</v>
+        <v>12.39368593418464</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.50922446430059</v>
+        <v>26.51124469853119</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>111.7785716815816</v>
+        <v>111.7870143669748</v>
       </c>
       <c r="E35" t="n">
-        <v>12.3878323673135</v>
+        <v>12.39368593418464</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.9258395274237</v>
+        <v>497.9284398057902</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3463.665788753435</v>
+        <v>3463.671523841687</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623143856876722</v>
+        <v>7.623162765178574</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.9258395274237</v>
+        <v>512.9284398057902</v>
       </c>
       <c r="C42" t="n">
-        <v>6.717166539915016</v>
+        <v>6.717996173541046</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.82781653016</v>
+        <v>3445.825165283625</v>
       </c>
       <c r="E42" t="n">
-        <v>8.961571909203126</v>
+        <v>8.961803552679875</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>456.3634977309002</v>
+        <v>456.3392170977712</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2600020604768</v>
+        <v>10.26007146314329</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>538.4214621609594</v>
+        <v>538.4218458809644</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>959.7024858072822</v>
+        <v>959.703239312794</v>
       </c>
       <c r="E5" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G5" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.3903892161017</v>
+        <v>464.388496856731</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>875.0407878578355</v>
+        <v>875.038944477003</v>
       </c>
       <c r="E6" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.5273158912748</v>
+        <v>294.5226415496145</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.2676937294023</v>
+        <v>686.2628852672171</v>
       </c>
       <c r="E7" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.1106143072968</v>
+        <v>228.062403638499</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4399700025463</v>
+        <v>614.3884733051909</v>
       </c>
       <c r="E8" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.1888816016189</v>
+        <v>227.140634871307</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4502069877846</v>
+        <v>613.3986811064987</v>
       </c>
       <c r="E9" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.0284191931513</v>
+        <v>167.9559181137005</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.2877198657113</v>
+        <v>550.2109988432699</v>
       </c>
       <c r="E10" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G10" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.6939096519824</v>
+        <v>102.6457362038166</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.2559110959024</v>
+        <v>481.2055097246411</v>
       </c>
       <c r="E11" t="n">
-        <v>466.623499791377</v>
+        <v>466.5992885609144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787249587184665</v>
+        <v>0.7787248663859441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.121140189751365</v>
+        <v>0.1211400396894334</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03146030331439352</v>
+        <v>0.03146038305848509</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212632704747019</v>
+        <v>0.06212648687099736</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548221168304848</v>
+        <v>0.006548223995140027</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.725548736456668</v>
+        <v>9.725614523871858</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5344533240201389</v>
+        <v>0.5344569392714403</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572037570827192</v>
+        <v>3.572034789149719</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944189</v>
+        <v>0.05094889585944151</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6430220743000709</v>
+        <v>0.6893876070579444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6764443136081983</v>
+        <v>0.7105947237349629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9505912923861374</v>
+        <v>0.9701558202324504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.800253825506401</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.21188460718351</v>
+        <v>58.33254284860531</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67765336173908</v>
+        <v>36.50282030408972</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849295252268303</v>
+        <v>0.849148095775427</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.56849099397355</v>
+        <v>13.70731094639863</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8167135257757566</v>
+        <v>0.8106110531790858</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.799086539844844</v>
+        <v>5.6070173103143</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8104560421316921</v>
+        <v>0.8026641566091376</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.16665371162604</v>
+        <v>2.515394287802648</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3443739727300819</v>
+        <v>0.4869703748371446</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1127346108691127</v>
+        <v>0.1554298973288425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1257938276990196</v>
+        <v>0.1729176771563105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8961855516380894</v>
+        <v>0.898866442604016</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41401.85783690561</v>
+        <v>41233.78189311013</v>
       </c>
       <c r="C2" t="n">
-        <v>41820.05842111678</v>
+        <v>41650.28474051528</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90780.97163581989</v>
+        <v>88658.49795390014</v>
       </c>
       <c r="C3" t="n">
-        <v>91697.95114729283</v>
+        <v>89554.03833727287</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39160.11593256221</v>
+        <v>39906.06665179316</v>
       </c>
       <c r="C4" t="n">
-        <v>39555.67265915375</v>
+        <v>40309.15823413451</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.1666006225665</v>
+        <v>514.3676872825051</v>
       </c>
       <c r="C5" t="n">
-        <v>518.3501016389561</v>
+        <v>519.563320487379</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32905.16636562947</v>
+        <v>33482.76598863685</v>
       </c>
       <c r="C6" t="n">
-        <v>33237.54178346411</v>
+        <v>33820.97574609783</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37327.54146218584</v>
+        <v>37922.02778566079</v>
       </c>
       <c r="C7" t="n">
-        <v>37704.58733554126</v>
+        <v>38305.07857137454</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.08202246411778</v>
+        <v>51.09341182306915</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.66007944230059</v>
+        <v>85.03323739988309</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.925632981633187</v>
+        <v>7.541085665099326</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.9272811941796</v>
+        <v>512.9272164515965</v>
       </c>
       <c r="C3" t="n">
-        <v>6.717680610887203</v>
+        <v>6.717060032980955</v>
       </c>
       <c r="D3" t="n">
-        <v>3445.826967057529</v>
+        <v>3445.832110656948</v>
       </c>
       <c r="E3" t="n">
-        <v>58.0086786948097</v>
+        <v>58.00458087187396</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5948819866711</v>
+        <v>286.5904578979056</v>
       </c>
       <c r="C4" t="n">
-        <v>7.079591022822543</v>
+        <v>7.079129404125583</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.589015870915</v>
+        <v>2771.595087058332</v>
       </c>
       <c r="E4" t="n">
-        <v>58.0086786948097</v>
+        <v>58.00458087187396</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9527661608513</v>
+        <v>285.9631296512504</v>
       </c>
       <c r="C5" t="n">
-        <v>7.079591022822543</v>
+        <v>7.079129404125583</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.27109720729</v>
+        <v>1268.327426969694</v>
       </c>
       <c r="E5" t="n">
-        <v>58.0086786948097</v>
+        <v>58.00458087187396</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.9315203429961</v>
+        <v>163.8601364231477</v>
       </c>
       <c r="C6" t="n">
-        <v>7.079591022822543</v>
+        <v>7.079129404125583</v>
       </c>
       <c r="D6" t="n">
-        <v>696.2503972453474</v>
+        <v>695.9414474146679</v>
       </c>
       <c r="E6" t="n">
-        <v>58.0086786948097</v>
+        <v>58.00458087187396</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.4300167448406</v>
+        <v>157.3527155774717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.578862597041788</v>
+        <v>0.5777101233084723</v>
       </c>
       <c r="D7" t="n">
-        <v>664.318443843184</v>
+        <v>663.983233702741</v>
       </c>
       <c r="E7" t="n">
-        <v>58.0086786948097</v>
+        <v>58.00458087187396</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.2377055920628</v>
+        <v>170.1585545453194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.572551964733805</v>
+        <v>0.5721021547412127</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.543565817987</v>
+        <v>2785.445521729595</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76624469377397</v>
+        <v>14.77167967761143</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.4300166235173</v>
+        <v>157.3527154563022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.578862597041788</v>
+        <v>0.5777101233084723</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.578960158032</v>
+        <v>2754.491800114514</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76624469377397</v>
+        <v>14.77167967761143</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.4300167448406</v>
+        <v>157.3527155774717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.578862597041788</v>
+        <v>0.5777101233084723</v>
       </c>
       <c r="D10" t="n">
-        <v>687.4183317314358</v>
+        <v>687.2107746040194</v>
       </c>
       <c r="E10" t="n">
-        <v>72.77492338858367</v>
+        <v>72.77626054948539</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.4300167448406</v>
+        <v>157.3527155774717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.578862597041788</v>
+        <v>0.5777101233084723</v>
       </c>
       <c r="D11" t="n">
-        <v>687.4183317314358</v>
+        <v>687.2107746040194</v>
       </c>
       <c r="E11" t="n">
-        <v>73.18045259364861</v>
+        <v>73.18345096893471</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.578862597041788</v>
+        <v>0.5777101233084723</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6497018198185</v>
+        <v>251.6487340952844</v>
       </c>
       <c r="E12" t="n">
-        <v>73.18047517184375</v>
+        <v>73.18161004014031</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.39532772177898</v>
+        <v>59.3951936449792</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.2187482499852</v>
+        <v>249.2181873570571</v>
       </c>
       <c r="E13" t="n">
-        <v>72.77375648992947</v>
+        <v>72.77218415835796</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.90012555471026</v>
+        <v>58.89997126250557</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>247.1471867526699</v>
+        <v>247.146541323923</v>
       </c>
       <c r="E14" t="n">
-        <v>63.81195293724959</v>
+        <v>63.81055237021086</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.38179807715613</v>
+        <v>95.37918427398785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08580443656409069</v>
+        <v>0.08579620142847315</v>
       </c>
       <c r="D15" t="n">
-        <v>399.6974006544584</v>
+        <v>399.6863886867865</v>
       </c>
       <c r="E15" t="n">
-        <v>59.3666808705654</v>
+        <v>59.36743940007383</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.66515172748456</v>
+        <v>61.66445269501281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08580448999535727</v>
+        <v>0.08579590681833121</v>
       </c>
       <c r="D16" t="n">
-        <v>258.2049157162271</v>
+        <v>258.2019825750531</v>
       </c>
       <c r="E16" t="n">
-        <v>59.36586047771819</v>
+        <v>59.36544290625322</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>622.4795528524821</v>
+        <v>622.4818893569702</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.41431802732841</v>
+        <v>78.41461235893361</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.22836897425998</v>
+        <v>78.22656627308614</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>327.5421808952266</v>
+        <v>327.5346329854117</v>
       </c>
       <c r="E19" t="n">
-        <v>78.41431802732841</v>
+        <v>78.41461235893361</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.4889159149184</v>
+        <v>111.4864668758355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1506953771011808</v>
+        <v>0.1506986742224275</v>
       </c>
       <c r="D20" t="n">
-        <v>2680.630627357275</v>
+        <v>2680.610492561998</v>
       </c>
       <c r="E20" t="n">
-        <v>16.30461304227376</v>
+        <v>16.30775959340629</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.9546869422155</v>
+        <v>109.9553380961523</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1431606082461217</v>
+        <v>0.1431637405113061</v>
       </c>
       <c r="D21" t="n">
-        <v>461.2234337417552</v>
+        <v>461.2261892735729</v>
       </c>
       <c r="E21" t="n">
-        <v>16.30461304227376</v>
+        <v>16.30775959340629</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.63634396580652</v>
+        <v>92.63388471749718</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>387.8683721848319</v>
+        <v>387.8580753121607</v>
       </c>
       <c r="E22" t="n">
-        <v>622.4795528524821</v>
+        <v>622.4818893569702</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>622.4795528524821</v>
+        <v>622.4818893569702</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.09063778201212</v>
+        <v>56.09041069409814</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>622.4795528524821</v>
+        <v>622.4818893569702</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.78475959209908</v>
+        <v>96.7821229308642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0903204595411481</v>
+        <v>0.09031179097734016</v>
       </c>
       <c r="D25" t="n">
-        <v>2610.664260704949</v>
+        <v>2610.64307650721</v>
       </c>
       <c r="E25" t="n">
-        <v>43.06208234821182</v>
+        <v>43.0595931932933</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510.1270916756916</v>
+        <v>510.1258357071296</v>
       </c>
       <c r="C26" t="n">
-        <v>6.11928105710733</v>
+        <v>6.118554706413803</v>
       </c>
       <c r="D26" t="n">
-        <v>3445.826967057529</v>
+        <v>3445.832110656948</v>
       </c>
       <c r="E26" t="n">
-        <v>49.04655869761071</v>
+        <v>49.04061779769238</v>
       </c>
       <c r="F26" t="n">
-        <v>6.903143087374888</v>
+        <v>6.90320194541643</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>198.3291809893727</v>
+        <v>198.3374326332104</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4229403536252015</v>
+        <v>0.4229304028617735</v>
       </c>
       <c r="D27" t="n">
-        <v>2856.247976680004</v>
+        <v>2856.265899465133</v>
       </c>
       <c r="E27" t="n">
-        <v>49.04655869761071</v>
+        <v>49.04061779769238</v>
       </c>
       <c r="F27" t="n">
-        <v>7.137222703095198</v>
+        <v>7.137271327264829</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.4612390437833</v>
+        <v>167.4188104749901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4849928269201302</v>
+        <v>0.4850285636368551</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.543565817987</v>
+        <v>2785.445521729595</v>
       </c>
       <c r="E28" t="n">
-        <v>14.76624469377397</v>
+        <v>14.77167967761143</v>
       </c>
       <c r="F28" t="n">
-        <v>6.920685317155668</v>
+        <v>6.920430005040154</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.6030873128296</v>
+        <v>190.5957377916122</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4229403536252015</v>
+        <v>0.4229304028617735</v>
       </c>
       <c r="D29" t="n">
-        <v>2839.887018122608</v>
+        <v>2839.87194444476</v>
       </c>
       <c r="E29" t="n">
-        <v>63.81280339138468</v>
+        <v>63.81229747530382</v>
       </c>
       <c r="F29" t="n">
-        <v>7.102233544277285</v>
+        <v>7.10221163217904</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.4886370997665</v>
+        <v>111.4864636559174</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1506973941893003</v>
+        <v>0.1506864893269686</v>
       </c>
       <c r="D30" t="n">
-        <v>2680.629497512328</v>
+        <v>2680.610479514342</v>
       </c>
       <c r="E30" t="n">
-        <v>63.81280339138468</v>
+        <v>63.81229747530382</v>
       </c>
       <c r="F30" t="n">
-        <v>7.188446375368067</v>
+        <v>7.188429470633479</v>
       </c>
       <c r="G30" t="n">
-        <v>99.42998276199482</v>
+        <v>99.42927720355233</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.78474431699954</v>
+        <v>96.78337017237766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09032040931912726</v>
+        <v>0.09031589145318616</v>
       </c>
       <c r="D31" t="n">
-        <v>2610.664358362301</v>
+        <v>2610.649134688982</v>
       </c>
       <c r="E31" t="n">
-        <v>47.50820486903109</v>
+        <v>47.50445126852328</v>
       </c>
       <c r="F31" t="n">
-        <v>7.231413529597726</v>
+        <v>7.23139453117458</v>
       </c>
       <c r="G31" t="n">
-        <v>97.35946320569452</v>
+        <v>97.35889201170188</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.56960541963758</v>
+        <v>59.56140778538048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008598710068492504</v>
+        <v>0.008596864378845761</v>
       </c>
       <c r="D32" t="n">
-        <v>2610.664358362301</v>
+        <v>2610.649134688982</v>
       </c>
       <c r="E32" t="n">
-        <v>4.446092459531407</v>
+        <v>4.445109463957635</v>
       </c>
       <c r="F32" t="n">
-        <v>8.300587357907537</v>
+        <v>8.300640450210492</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.82189463529693</v>
+        <v>55.8182487147813</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002573771640589985</v>
+        <v>0.002573707453367537</v>
       </c>
       <c r="D33" t="n">
-        <v>2604.963391717021</v>
+        <v>2604.956538346724</v>
       </c>
       <c r="E33" t="n">
-        <v>4.446092459531407</v>
+        <v>4.445109463957635</v>
       </c>
       <c r="F33" t="n">
-        <v>8.839298559155983</v>
+        <v>8.839289227962356</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.55111644731653</v>
+        <v>21.55070900632194</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002573771640589985</v>
+        <v>0.002573707453367537</v>
       </c>
       <c r="D34" t="n">
-        <v>90.40399009189213</v>
+        <v>90.40228556454387</v>
       </c>
       <c r="E34" t="n">
-        <v>4.446092459531407</v>
+        <v>4.445109463957635</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.57156095968884</v>
+        <v>23.5711532000804</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.50032586841635</v>
+        <v>99.49862135277661</v>
       </c>
       <c r="E35" t="n">
-        <v>4.446092459531407</v>
+        <v>4.445109463957635</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.9284398057902</v>
+        <v>497.9207981839431</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3463.671523841687</v>
+        <v>3463.654669737838</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623162765178574</v>
+        <v>7.623156828740422</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>8.961803552679875</v>
+        <v>8.961631788147107</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.9284398057902</v>
+        <v>512.9207981839431</v>
       </c>
       <c r="C42" t="n">
-        <v>6.717996173541046</v>
+        <v>6.717277921644273</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.825165283625</v>
+        <v>3445.813306240177</v>
       </c>
       <c r="E42" t="n">
-        <v>8.961803552679875</v>
+        <v>8.961631788147107</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980476592665543</v>
+        <v>8.980469599237026</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572037570827192</v>
+        <v>3.572034789149719</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944189</v>
+        <v>0.05094889585944151</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.852330425003729</v>
+        <v>1.853722791774093</v>
       </c>
       <c r="C2" t="n">
-        <v>2.068015934813928</v>
+        <v>2.069517556289586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8957041354569611</v>
+        <v>0.8957270191501112</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2233511377948924</v>
+        <v>0.2231730895130211</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>132.715888357022</v>
+        <v>132.704060437768</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.92110362104518</v>
+        <v>31.92005564609679</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.231480878476559</v>
+        <v>6.231455782239555</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.42875459897591</v>
+        <v>42.42431071579598</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.91682055842934</v>
+        <v>28.91269122949139</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493485861334267</v>
+        <v>0.8493489696979463</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.16266885130323</v>
+        <v>10.16283997649249</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8276630406894291</v>
+        <v>0.8276590949623852</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.323918164429727</v>
+        <v>3.323475295936642</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148729390465179</v>
+        <v>0.8148726690595126</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02534702481361949</v>
+        <v>0.02530421387546247</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03394468510647957</v>
+        <v>0.03390042130022843</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04044314990537014</v>
+        <v>0.04043420829960987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04531654919472806</v>
+        <v>0.04530655035138138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924587291848587</v>
+        <v>0.8924583307715248</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39110.08641749672</v>
+        <v>39109.25673952267</v>
       </c>
       <c r="C2" t="n">
-        <v>39505.13779545124</v>
+        <v>39504.29973689158</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87205.10223017001</v>
+        <v>87201.94717537296</v>
       </c>
       <c r="C3" t="n">
-        <v>88085.96184865657</v>
+        <v>88082.77492461915</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33181.33878919893</v>
+        <v>33201.18399234336</v>
       </c>
       <c r="C4" t="n">
-        <v>33516.50382747367</v>
+        <v>33536.54948721551</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.22821509305</v>
+        <v>457.2179723756274</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8466819121718</v>
+        <v>461.836335732957</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29178.36978846529</v>
+        <v>29188.49431393731</v>
       </c>
       <c r="C6" t="n">
-        <v>29473.10079642959</v>
+        <v>29483.32758983567</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31889.74556304632</v>
+        <v>31875.9330082546</v>
       </c>
       <c r="C7" t="n">
-        <v>32211.86420509729</v>
+        <v>32197.9121295501</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.82470972038843</v>
+        <v>35.83125380677308</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.24987393168786</v>
+        <v>95.24441370596297</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.31582908727859</v>
+        <v>8.315268434688013</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25909.44326489882</v>
+        <v>25909.2946067824</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2605.725095019236</v>
+        <v>2605.220946746598</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17032.91751653127</v>
+        <v>17033.0327338467</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.835748645365</v>
+        <v>5906.831148774396</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.421478603997</v>
+        <v>4267.418155405418</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.82185307934</v>
+        <v>15840.80951724681</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28620.80417534794</v>
+        <v>28620.27976817322</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8011341805929133</v>
+        <v>0.801062781828854</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.8781752089178</v>
+        <v>462.1645888901409</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>867.0452482444499</v>
+        <v>867.3692487947777</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2753251681768</v>
+        <v>308.3244148141816</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.0464702807914</v>
+        <v>696.4619703370512</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.4830814567937</v>
+        <v>237.2556965343814</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.557385843524</v>
+        <v>619.5349142419103</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.5615799083427</v>
+        <v>236.3325612373623</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.5681528976488</v>
+        <v>618.5433659573256</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.126750560203</v>
+        <v>175.8804854818106</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1367553380755</v>
+        <v>553.9985277024483</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.9720113218006</v>
+        <v>106.6532329097938</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.1803307420113</v>
+        <v>480.8961098629809</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.3453548346104</v>
+        <v>503.4390662507816</v>
       </c>
       <c r="C3" t="n">
-        <v>7.755850428214822</v>
+        <v>8.288703061178403</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.109228653452</v>
+        <v>3404.576255483529</v>
       </c>
       <c r="E3" t="n">
-        <v>63.09258398604463</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.0644109904088</v>
+        <v>300.3303633639937</v>
       </c>
       <c r="C4" t="n">
-        <v>8.121779683625027</v>
+        <v>8.627946528605342</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.859649950336</v>
+        <v>2749.000844145504</v>
       </c>
       <c r="E4" t="n">
-        <v>63.09258398604463</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1515190070995</v>
+        <v>299.0437042562024</v>
       </c>
       <c r="C5" t="n">
-        <v>8.121779683625027</v>
+        <v>8.627946528605342</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.992950342019</v>
+        <v>1339.477515429199</v>
       </c>
       <c r="E5" t="n">
-        <v>63.09258398604463</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.038304496314</v>
+        <v>165.7458824637782</v>
       </c>
       <c r="C6" t="n">
-        <v>8.121779683625027</v>
+        <v>8.627946528605342</v>
       </c>
       <c r="D6" t="n">
-        <v>697.3163594507148</v>
+        <v>704.9902635812132</v>
       </c>
       <c r="E6" t="n">
-        <v>63.09258398604463</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.679170048044</v>
+        <v>164.2643252836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6615205107575189</v>
+        <v>0.6882440386374771</v>
       </c>
       <c r="D7" t="n">
-        <v>687.1246374815797</v>
+        <v>694.0291654017166</v>
       </c>
       <c r="E7" t="n">
-        <v>63.09258398604463</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3637176734109</v>
+        <v>176.8319228861931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6545424379888355</v>
+        <v>0.6813921284244163</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.615518682188</v>
+        <v>2793.183122279489</v>
       </c>
       <c r="E8" t="n">
-        <v>16.41219268077954</v>
+        <v>16.51314790857161</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.6791699160635</v>
+        <v>164.2643251482988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6615205107575189</v>
+        <v>0.6882440386374771</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.351121393604</v>
+        <v>2762.036342321795</v>
       </c>
       <c r="E9" t="n">
-        <v>16.41219268077954</v>
+        <v>16.51314790857161</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.679170048044</v>
+        <v>164.2643252836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6615205107575189</v>
+        <v>0.6882440386374771</v>
       </c>
       <c r="D10" t="n">
-        <v>701.2432411122761</v>
+        <v>702.4154276455397</v>
       </c>
       <c r="E10" t="n">
-        <v>79.50477666682417</v>
+        <v>79.40717510992309</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.679170048044</v>
+        <v>164.2643252836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6615205107575189</v>
+        <v>0.6882440386374771</v>
       </c>
       <c r="D11" t="n">
-        <v>701.2432411122761</v>
+        <v>702.4154276455397</v>
       </c>
       <c r="E11" t="n">
-        <v>83.03790297726536</v>
+        <v>84.14516411031119</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6615205107575189</v>
+        <v>0.6882440386374771</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7191084110199</v>
+        <v>251.7415474523764</v>
       </c>
       <c r="E12" t="n">
-        <v>83.04073931926857</v>
+        <v>84.14049005211697</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.21418105128959</v>
+        <v>53.57643919216548</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>231.731055974764</v>
+        <v>224.8830053559566</v>
       </c>
       <c r="E13" t="n">
-        <v>74.42217638974816</v>
+        <v>79.40739126393072</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.21418105128959</v>
+        <v>53.57643919216548</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>231.731055974764</v>
+        <v>224.8830053559566</v>
       </c>
       <c r="E14" t="n">
-        <v>74.42217638974816</v>
+        <v>79.40739126393072</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.83482214690872</v>
+        <v>89.83472087440356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07521667964737221</v>
+        <v>0.06974236931417263</v>
       </c>
       <c r="D15" t="n">
-        <v>384.760800286634</v>
+        <v>376.3440149351423</v>
       </c>
       <c r="E15" t="n">
-        <v>62.02676245086348</v>
+        <v>62.32118632840375</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.06800579422338</v>
+        <v>60.68966503149397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07521705416830728</v>
+        <v>0.069738383752463</v>
       </c>
       <c r="D16" t="n">
-        <v>255.6966364756898</v>
+        <v>254.1085362118883</v>
       </c>
       <c r="E16" t="n">
-        <v>62.02849045556352</v>
+        <v>62.31948721810407</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.32120773545424</v>
+        <v>75.18482372606056</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>319.5568967883469</v>
+        <v>314.7988569410156</v>
       </c>
       <c r="E19" t="n">
         <v>80.82053300784078</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.508277854822</v>
+        <v>113.0085336517438</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1558789291441388</v>
+        <v>0.1584912515907848</v>
       </c>
       <c r="D20" t="n">
-        <v>2654.637978127345</v>
+        <v>2645.120489742652</v>
       </c>
       <c r="E20" t="n">
-        <v>21.26289878877304</v>
+        <v>23.70111015014146</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.9642263914133</v>
+        <v>111.4625777920019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1480849826869319</v>
+        <v>0.1505666890112456</v>
       </c>
       <c r="D21" t="n">
-        <v>465.4963234118443</v>
+        <v>467.6061638290612</v>
       </c>
       <c r="E21" t="n">
-        <v>21.26289878877304</v>
+        <v>23.70111015014146</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.22719333594945</v>
+        <v>87.36165681833423</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>373.5942584976204</v>
+        <v>365.7832570983654</v>
       </c>
       <c r="E22" t="n">
         <v>641.5809065697239</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.85039093820206</v>
+        <v>55.70723960623391</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.20695313874194</v>
+        <v>91.18963353854843</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0791754522603918</v>
+        <v>0.07341302033070804</v>
       </c>
       <c r="D25" t="n">
-        <v>2564.362112269697</v>
+        <v>2544.461409733243</v>
       </c>
       <c r="E25" t="n">
-        <v>40.76391015352819</v>
+        <v>38.61826986232082</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.4651871586309</v>
+        <v>500.7739482002891</v>
       </c>
       <c r="C26" t="n">
-        <v>7.156393177787421</v>
+        <v>7.734409676052506</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.109228653452</v>
+        <v>3404.576255483529</v>
       </c>
       <c r="E26" t="n">
-        <v>58.0086786948097</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F26" t="n">
-        <v>6.792538576506256</v>
+        <v>6.747770090970403</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.7380698235153</v>
+        <v>185.655750898473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4824850639652598</v>
+        <v>0.5108015667827209</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.546903851657</v>
+        <v>2824.190137303688</v>
       </c>
       <c r="E27" t="n">
-        <v>58.0086786948097</v>
+        <v>62.89402720135148</v>
       </c>
       <c r="F27" t="n">
-        <v>7.027199198799903</v>
+        <v>6.983516246773277</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.4662275156441</v>
+        <v>174.0426557267245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5591421291888006</v>
+        <v>0.5884046035311404</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.615518682188</v>
+        <v>2793.183122279489</v>
       </c>
       <c r="E28" t="n">
-        <v>16.41219268077954</v>
+        <v>16.51314790857161</v>
       </c>
       <c r="F28" t="n">
-        <v>6.871211676977951</v>
+        <v>6.852134700596663</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.5764417375794</v>
+        <v>182.7173497323862</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4824850639652598</v>
+        <v>0.5108015667827209</v>
       </c>
       <c r="D29" t="n">
-        <v>2823.520218626457</v>
+        <v>2817.742062245117</v>
       </c>
       <c r="E29" t="n">
-        <v>74.42087137558924</v>
+        <v>79.40717510992309</v>
       </c>
       <c r="F29" t="n">
-        <v>7.00756752363847</v>
+        <v>6.969416971639597</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.5078031219924</v>
+        <v>113.008833763039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1558828075487304</v>
+        <v>0.1584851894022338</v>
       </c>
       <c r="D30" t="n">
-        <v>2654.636264949772</v>
+        <v>2645.121503367111</v>
       </c>
       <c r="E30" t="n">
-        <v>74.42087137558924</v>
+        <v>79.40717510992309</v>
       </c>
       <c r="F30" t="n">
-        <v>7.105843401853204</v>
+        <v>7.073857401779498</v>
       </c>
       <c r="G30" t="n">
-        <v>98.19081717059083</v>
+        <v>97.7275219111893</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.20566547833801</v>
+        <v>91.19043783442231</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0791716575356613</v>
+        <v>0.07341524614381642</v>
       </c>
       <c r="D31" t="n">
-        <v>2564.356630323431</v>
+        <v>2544.464615602672</v>
       </c>
       <c r="E31" t="n">
-        <v>53.15801907825395</v>
+        <v>55.70425864384015</v>
       </c>
       <c r="F31" t="n">
-        <v>7.163475888887222</v>
+        <v>7.141779051959856</v>
       </c>
       <c r="G31" t="n">
-        <v>95.58655562784205</v>
+        <v>94.86705963883583</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.02519105255578</v>
+        <v>70.27227825687282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02291095487444339</v>
+        <v>0.03157017023696564</v>
       </c>
       <c r="D32" t="n">
-        <v>2564.356630323431</v>
+        <v>2544.464615602672</v>
       </c>
       <c r="E32" t="n">
-        <v>12.39368593418464</v>
+        <v>17.08790404582666</v>
       </c>
       <c r="F32" t="n">
-        <v>7.71232013253243</v>
+        <v>7.510908404445575</v>
       </c>
       <c r="G32" t="n">
-        <v>97.8839333605187</v>
+        <v>96.48007041432952</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.48866535296202</v>
+        <v>26.04566909662333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00307457564670357</v>
+        <v>0.003372988119636103</v>
       </c>
       <c r="D33" t="n">
-        <v>2470.223721209756</v>
+        <v>2397.261407938536</v>
       </c>
       <c r="E33" t="n">
-        <v>12.39368593418464</v>
+        <v>17.08790404582666</v>
       </c>
       <c r="F33" t="n">
-        <v>8.31443312331098</v>
+        <v>8.029233067338627</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91531852647056</v>
+        <v>93.80380829402544</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.48866535296202</v>
+        <v>26.04566909662333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00307457564670357</v>
+        <v>0.003372988119636103</v>
       </c>
       <c r="D34" t="n">
-        <v>102.6908817501102</v>
+        <v>109.2017615564773</v>
       </c>
       <c r="E34" t="n">
-        <v>12.39368593418464</v>
+        <v>17.08790404582666</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.51124469853119</v>
+        <v>28.06925145995467</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>111.7870143669748</v>
+        <v>118.2976633658512</v>
       </c>
       <c r="E35" t="n">
-        <v>12.39368593418464</v>
+        <v>17.08790404582666</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.9284398057902</v>
+        <v>497.9207981839431</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3463.671523841687</v>
+        <v>3463.654669737838</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623162765178574</v>
+        <v>7.623156828740422</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.9284398057902</v>
+        <v>512.9207981839431</v>
       </c>
       <c r="C42" t="n">
-        <v>6.717996173541046</v>
+        <v>6.717277921644273</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.825165283625</v>
+        <v>3445.813306240177</v>
       </c>
       <c r="E42" t="n">
-        <v>8.961803552679875</v>
+        <v>8.961631788147107</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
